--- a/eval/tasks/m-002/input.xlsx
+++ b/eval/tasks/m-002/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Code\ib-bench\eval\tasks\m-002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C416EF6-DECC-4F0E-B541-CF630A219580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D201A1D-5A55-4D89-8BB3-92CA77615A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22875" windowHeight="14431" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2011,7 +2011,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -7526,7 +7526,7 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7773,7 +7773,6 @@
     <xf numFmtId="167" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -10572,10 +10571,10 @@
   <dimension ref="A1:BG168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="3" topLeftCell="AF122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ13" sqref="AQ13"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -10651,9 +10650,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="21" t="str">
-        <f>AP3</f>
-        <v>1Q24</v>
+      <c r="G2" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -27528,7 +27526,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:S29"/>
+  <dimension ref="A2:S28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -28765,12 +28763,12 @@
       <c r="A27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="147" t="s">
+      <c r="B27" s="146" t="s">
         <v>56</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
-      <c r="E27" s="148">
+      <c r="E27" s="147">
         <f>SUM(K25:R25)</f>
         <v>5552.4295539242667</v>
       </c>
@@ -28781,16 +28779,10 @@
         <v>166</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="149">
+      <c r="E28" s="148">
         <f>K21/E27</f>
         <v>4.8815348429668171E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
